--- a/biology/Médecine/Hématopoïèse/Hématopoïèse.xlsx
+++ b/biology/Médecine/Hématopoïèse/Hématopoïèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9matopo%C3%AF%C3%A8se</t>
+          <t>Hématopoïèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hématopoïèse (du Grec αἷμα, αίματος : « le sang » et ποιεῖν : faire, fabriquer) est le processus physiologique de production des cellules sanguines (érythrocytes et leucocytes qui, avec les plaquettes, forment ce que l'on nomme les éléments figurés du sang).
-Chez l'adulte sain, la production quotidienne représente cent à mille milliards de cellules sanguines, qui remplacent autant de cellules sénescentes détruites au terme de leur durée de vie. Ainsi, l'hématopoïèse est un renouvellement cellulaire régulé qui permet de maintenir constant le nombre de cellules sanguines[1].
+Chez l'adulte sain, la production quotidienne représente cent à mille milliards de cellules sanguines, qui remplacent autant de cellules sénescentes détruites au terme de leur durée de vie. Ainsi, l'hématopoïèse est un renouvellement cellulaire régulé qui permet de maintenir constant le nombre de cellules sanguines.
 Tous les éléments figurés du sang sont issus d'un type cellulaire unique : les cellules souches hématopoïétiques (CSH). L'hématopoïèse est constituée des étapes successives de la prolifération et de la différenciation de ces cellules souches multipotentes, engendrant plusieurs générations de progéniteurs et de précurseurs dont la différenciation terminale fournit les trois lignées de cellules sanguines matures : érythrocytes, leucocytes et thrombocytes.
 Connaître les mécanismes cellulaires et moléculaires de l'hématopoïèse est un enjeu important de la recherche biomédicale, car la possibilité de les reproduire in vitro ouvrirait la voie à la production à grande échelle de sang et de dérivés sanguins artificiels, ce qui pourrait permettre de s'affranchir des contraintes de la transfusion.
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9matopo%C3%AF%C3%A8se</t>
+          <t>Hématopoïèse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Site hématopoïétique : tissu formé de mésoderme et d’endoderme dans lequel apparaissent les cellules hématopoïétiques (CH).
 Exemples : sac vitellin, aorte, allantoïde.
@@ -528,7 +542,7 @@
 l’expansion des CSH (AGM=aorte, gonade, mésonéphros ; foie fœtal ; placenta ; sac vitellin ; moelle osseuse) ;
 la mise en quiescence et autorenouvellement des CSH (moelle osseuse).
 Chez l’humain ce processus se déroule pendant les 70 premiers jours de gestation.
-Les cellules souches se différencient en progéniteurs qui eux-mêmes subiront trois processus de différenciation[2] :
+Les cellules souches se différencient en progéniteurs qui eux-mêmes subiront trois processus de différenciation :
 l'érythropoïèse ;
 la leucopoïèse comprenant la granulopoïèse ;
 la thrombocytopoïèse.</t>
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9matopo%C3%AF%C3%A8se</t>
+          <t>Hématopoïèse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,7 +573,9 @@
           <t>Érythropoïèse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'érythropoïèse est le processus permettant la fabrication des globules rouges.
 On passe successivement d'un proérythroblaste (grosse cellule nucléée de 20 micromètres de diamètre) à un érythroblaste d'abord basophile, polychromatophile puis enfin acidophile (il y a alcalinisation du milieu cellulaire au cours de cette différenciation car il y a baisse du nombre de ribosomes et augmentation du taux d'hémoglobine).
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9matopo%C3%AF%C3%A8se</t>
+          <t>Hématopoïèse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +612,9 @@
           <t>Leucopoïèse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La leucopoïèse est le processus ayant intégralement lieu dans la moelle osseuse et permettant la fabrication de leucocytes (= globules blancs), sous l'influence d'interleukines et de « facteurs de croissance des colonies » (CSF). Les différentes interleukines sont répertoriées par des numéros, tandis que les facteurs de croissance portent le nom du leucocyte qu'ils stimulent.
 On distingue trois grandes classes de leucocytes :
@@ -612,7 +630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%A9matopo%C3%AF%C3%A8se</t>
+          <t>Hématopoïèse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -630,7 +648,9 @@
           <t>Thrombocytopoïèse</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La thrombocytopoïèse est le processus permettant la fabrication des plaquettes.
 Un mégacaryoblaste se différencie en mégacaryocyte basophile, qui lui-même devient successivement un mégacaryocyte thrombocytogène (= mégacaryocyte granuleux) puis un ensemble de plaquettes (diamètre très petit : 2 à 4 micromètres) : c'est le cytoplasme du megacaryocyte granuleux qui se fragmente.
@@ -648,7 +668,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H%C3%A9matopo%C3%AF%C3%A8se</t>
+          <t>Hématopoïèse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -666,7 +686,9 @@
           <t>L'hématopoïèse in utero</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Au stade embryonnaire, le processus d'hématopoïèse est très primitif (semblable à celui des oiseaux, poulets...) et se produit à l'extérieur de l'embryon : dans le sac vitellin (où les cellules souches la produisent).
 À la fin du premier trimestre (lorsque l'organogénèse marque le début du stade fœtal), les cellules souches pénètrent dans l'embryon et sont intégrés dans la région mésoaortique (à côté du cordon ombilical).
@@ -684,7 +706,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>H%C3%A9matopo%C3%AF%C3%A8se</t>
+          <t>Hématopoïèse</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -702,14 +724,85 @@
           <t>Maladies liées à l'hématopoïèse</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles sont souvent dues à un excès ou un défaut de création de certaines cellules sanguines, donnant selon[Quoi ?], une hémopathie des cellules sanguines (tumeur), une aplasie des globules rouges.
-Hémopathie des globules sanguins
-Leucémie : les cellules tumorales sont dispersées dans le sang.
-Lymphome : les cellules tumorales sont dispersées dans les organes lymphoïdes secondaires (ganglion, rate…).
-Aplasie des globules sanguins
-Le rôle des cellules sanguines étant principalement : le transport du nutriment O2 et l'élimination d'une partie du CO2 par le globule rouge, l'hémostase par les plaquettes, et la défense immunitaire ; une aplasie d'un type de globule donnera une défaillance dans la fonction qui lui est destinée et donnera respectivement principalement une fatigue, une facilité aux hémorragies, et un risque d'infection plus élevé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hématopoïèse</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9matopo%C3%AF%C3%A8se</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Maladies liées à l'hématopoïèse</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Hémopathie des globules sanguins</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Leucémie : les cellules tumorales sont dispersées dans le sang.
+Lymphome : les cellules tumorales sont dispersées dans les organes lymphoïdes secondaires (ganglion, rate…).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hématopoïèse</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9matopo%C3%AF%C3%A8se</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Maladies liées à l'hématopoïèse</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Aplasie des globules sanguins</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rôle des cellules sanguines étant principalement : le transport du nutriment O2 et l'élimination d'une partie du CO2 par le globule rouge, l'hémostase par les plaquettes, et la défense immunitaire ; une aplasie d'un type de globule donnera une défaillance dans la fonction qui lui est destinée et donnera respectivement principalement une fatigue, une facilité aux hémorragies, et un risque d'infection plus élevé.
 Ces aplasies peuvent être dues à un manque de certains éléments : le manque de fer important donne une anémie, le manque de folate et de vitamine B12 peut aussi provoquer des aplasies.
 </t>
         </is>
